--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Hspg2-Itgb1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Hspg2-Itgb1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>228.935086540269</v>
+        <v>230.4028776666667</v>
       </c>
       <c r="H2">
-        <v>228.935086540269</v>
+        <v>691.208633</v>
       </c>
       <c r="I2">
-        <v>0.5829455397001138</v>
+        <v>0.5806109522726741</v>
       </c>
       <c r="J2">
-        <v>0.5829455397001138</v>
+        <v>0.580610952272674</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N2">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q2">
-        <v>37112.32378118166</v>
+        <v>37719.71252932312</v>
       </c>
       <c r="R2">
-        <v>37112.32378118166</v>
+        <v>339477.4127639081</v>
       </c>
       <c r="S2">
-        <v>0.1603762663405319</v>
+        <v>0.1599004340622525</v>
       </c>
       <c r="T2">
-        <v>0.1603762663405319</v>
+        <v>0.1599004340622524</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>228.935086540269</v>
+        <v>230.4028776666667</v>
       </c>
       <c r="H3">
-        <v>228.935086540269</v>
+        <v>691.208633</v>
       </c>
       <c r="I3">
-        <v>0.5829455397001138</v>
+        <v>0.5806109522726741</v>
       </c>
       <c r="J3">
-        <v>0.5829455397001138</v>
+        <v>0.580610952272674</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N3">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q3">
-        <v>39503.89995828841</v>
+        <v>39757.97427463486</v>
       </c>
       <c r="R3">
-        <v>39503.89995828841</v>
+        <v>357821.7684717138</v>
       </c>
       <c r="S3">
-        <v>0.1707111637243445</v>
+        <v>0.168540980767227</v>
       </c>
       <c r="T3">
-        <v>0.1707111637243445</v>
+        <v>0.168540980767227</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>228.935086540269</v>
+        <v>230.4028776666667</v>
       </c>
       <c r="H4">
-        <v>228.935086540269</v>
+        <v>691.208633</v>
       </c>
       <c r="I4">
-        <v>0.5829455397001138</v>
+        <v>0.5806109522726741</v>
       </c>
       <c r="J4">
-        <v>0.5829455397001138</v>
+        <v>0.580610952272674</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N4">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q4">
-        <v>25473.10136864409</v>
+        <v>25687.19388817423</v>
       </c>
       <c r="R4">
-        <v>25473.10136864409</v>
+        <v>231184.744993568</v>
       </c>
       <c r="S4">
-        <v>0.1100788221644189</v>
+        <v>0.1088924908790657</v>
       </c>
       <c r="T4">
-        <v>0.1100788221644189</v>
+        <v>0.1088924908790657</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>228.935086540269</v>
+        <v>230.4028776666667</v>
       </c>
       <c r="H5">
-        <v>228.935086540269</v>
+        <v>691.208633</v>
       </c>
       <c r="I5">
-        <v>0.5829455397001138</v>
+        <v>0.5806109522726741</v>
       </c>
       <c r="J5">
-        <v>0.5829455397001138</v>
+        <v>0.580610952272674</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N5">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q5">
-        <v>19751.29434672174</v>
+        <v>20035.36936568716</v>
       </c>
       <c r="R5">
-        <v>19751.29434672174</v>
+        <v>180318.3242911844</v>
       </c>
       <c r="S5">
-        <v>0.08535274862864511</v>
+        <v>0.0849334218992369</v>
       </c>
       <c r="T5">
-        <v>0.08535274862864511</v>
+        <v>0.08493342189923689</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>228.935086540269</v>
+        <v>230.4028776666667</v>
       </c>
       <c r="H6">
-        <v>228.935086540269</v>
+        <v>691.208633</v>
       </c>
       <c r="I6">
-        <v>0.5829455397001138</v>
+        <v>0.5806109522726741</v>
       </c>
       <c r="J6">
-        <v>0.5829455397001138</v>
+        <v>0.580610952272674</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N6">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q6">
-        <v>13057.54290922106</v>
+        <v>13762.96920758622</v>
       </c>
       <c r="R6">
-        <v>13057.54290922106</v>
+        <v>123866.7228682759</v>
       </c>
       <c r="S6">
-        <v>0.05642653884217332</v>
+        <v>0.05834362466489196</v>
       </c>
       <c r="T6">
-        <v>0.05642653884217332</v>
+        <v>0.05834362466489195</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>134.465186013425</v>
+        <v>134.7127306666667</v>
       </c>
       <c r="H7">
-        <v>134.465186013425</v>
+        <v>404.138192</v>
       </c>
       <c r="I7">
-        <v>0.3423934776274863</v>
+        <v>0.339473567464654</v>
       </c>
       <c r="J7">
-        <v>0.3423934776274863</v>
+        <v>0.339473567464654</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N7">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q7">
-        <v>21797.94978586328</v>
+        <v>22054.08858711462</v>
       </c>
       <c r="R7">
-        <v>21797.94978586328</v>
+        <v>198486.7972840315</v>
       </c>
       <c r="S7">
-        <v>0.09419711417552847</v>
+        <v>0.09349112444018609</v>
       </c>
       <c r="T7">
-        <v>0.09419711417552847</v>
+        <v>0.09349112444018609</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>134.465186013425</v>
+        <v>134.7127306666667</v>
       </c>
       <c r="H8">
-        <v>134.465186013425</v>
+        <v>404.138192</v>
       </c>
       <c r="I8">
-        <v>0.3423934776274863</v>
+        <v>0.339473567464654</v>
       </c>
       <c r="J8">
-        <v>0.3423934776274863</v>
+        <v>0.339473567464654</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N8">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q8">
-        <v>23202.64375558107</v>
+        <v>23245.8263306058</v>
       </c>
       <c r="R8">
-        <v>23202.64375558107</v>
+        <v>209212.4369754523</v>
       </c>
       <c r="S8">
-        <v>0.1002673235092978</v>
+        <v>0.09854310839484828</v>
       </c>
       <c r="T8">
-        <v>0.1002673235092978</v>
+        <v>0.09854310839484828</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>134.465186013425</v>
+        <v>134.7127306666667</v>
       </c>
       <c r="H9">
-        <v>134.465186013425</v>
+        <v>404.138192</v>
       </c>
       <c r="I9">
-        <v>0.3423934776274863</v>
+        <v>0.339473567464654</v>
       </c>
       <c r="J9">
-        <v>0.3423934776274863</v>
+        <v>0.339473567464654</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N9">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q9">
-        <v>14961.64421817915</v>
+        <v>15018.8750543574</v>
       </c>
       <c r="R9">
-        <v>14961.64421817915</v>
+        <v>135169.8754892166</v>
       </c>
       <c r="S9">
-        <v>0.06465487454180045</v>
+        <v>0.06366762839063396</v>
       </c>
       <c r="T9">
-        <v>0.06465487454180045</v>
+        <v>0.06366762839063396</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>134.465186013425</v>
+        <v>134.7127306666667</v>
       </c>
       <c r="H10">
-        <v>134.465186013425</v>
+        <v>404.138192</v>
       </c>
       <c r="I10">
-        <v>0.3423934776274863</v>
+        <v>0.339473567464654</v>
       </c>
       <c r="J10">
-        <v>0.3423934776274863</v>
+        <v>0.339473567464654</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N10">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q10">
-        <v>11600.93679162058</v>
+        <v>11714.34725338709</v>
       </c>
       <c r="R10">
-        <v>11600.93679162058</v>
+        <v>105429.1252804838</v>
       </c>
       <c r="S10">
-        <v>0.05013199765292031</v>
+        <v>0.04965915922917994</v>
       </c>
       <c r="T10">
-        <v>0.05013199765292031</v>
+        <v>0.04965915922917994</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>134.465186013425</v>
+        <v>134.7127306666667</v>
       </c>
       <c r="H11">
-        <v>134.465186013425</v>
+        <v>404.138192</v>
       </c>
       <c r="I11">
-        <v>0.3423934776274863</v>
+        <v>0.339473567464654</v>
       </c>
       <c r="J11">
-        <v>0.3423934776274863</v>
+        <v>0.339473567464654</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N11">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q11">
-        <v>7669.357120835435</v>
+        <v>8046.979199268141</v>
       </c>
       <c r="R11">
-        <v>7669.357120835435</v>
+        <v>72422.81279341326</v>
       </c>
       <c r="S11">
-        <v>0.03314216774793927</v>
+        <v>0.0341125470098057</v>
       </c>
       <c r="T11">
-        <v>0.03314216774793927</v>
+        <v>0.0341125470098057</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.109875835497129</v>
+        <v>0.1219473333333333</v>
       </c>
       <c r="H12">
-        <v>0.109875835497129</v>
+        <v>0.365842</v>
       </c>
       <c r="I12">
-        <v>0.0002797807413089924</v>
+        <v>0.0003073050043941503</v>
       </c>
       <c r="J12">
-        <v>0.0002797807413089924</v>
+        <v>0.0003073050043941503</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N12">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q12">
-        <v>17.81180702495788</v>
+        <v>19.96424004610578</v>
       </c>
       <c r="R12">
-        <v>17.81180702495788</v>
+        <v>179.678160414952</v>
       </c>
       <c r="S12">
-        <v>7.69714966996833E-05</v>
+        <v>8.463189231926529E-05</v>
       </c>
       <c r="T12">
-        <v>7.69714966996833E-05</v>
+        <v>8.463189231926529E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.109875835497129</v>
+        <v>0.1219473333333333</v>
       </c>
       <c r="H13">
-        <v>0.109875835497129</v>
+        <v>0.365842</v>
       </c>
       <c r="I13">
-        <v>0.0002797807413089924</v>
+        <v>0.0003073050043941503</v>
       </c>
       <c r="J13">
-        <v>0.0002797807413089924</v>
+        <v>0.0003073050043941503</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N13">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q13">
-        <v>18.95962772202003</v>
+        <v>21.043048553158</v>
       </c>
       <c r="R13">
-        <v>18.95962772202003</v>
+        <v>189.387436978422</v>
       </c>
       <c r="S13">
-        <v>8.193166030756158E-05</v>
+        <v>8.920514956277155E-05</v>
       </c>
       <c r="T13">
-        <v>8.193166030756158E-05</v>
+        <v>8.920514956277155E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.109875835497129</v>
+        <v>0.1219473333333333</v>
       </c>
       <c r="H14">
-        <v>0.109875835497129</v>
+        <v>0.365842</v>
       </c>
       <c r="I14">
-        <v>0.0002797807413089924</v>
+        <v>0.0003073050043941503</v>
       </c>
       <c r="J14">
-        <v>0.0002797807413089924</v>
+        <v>0.0003073050043941503</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N14">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q14">
-        <v>12.22564150336351</v>
+        <v>13.59568433867844</v>
       </c>
       <c r="R14">
-        <v>12.22564150336351</v>
+        <v>122.361159048106</v>
       </c>
       <c r="S14">
-        <v>5.28315809456666E-05</v>
+        <v>5.763447495624544E-05</v>
       </c>
       <c r="T14">
-        <v>5.28315809456666E-05</v>
+        <v>5.763447495624545E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.109875835497129</v>
+        <v>0.1219473333333333</v>
       </c>
       <c r="H15">
-        <v>0.109875835497129</v>
+        <v>0.365842</v>
       </c>
       <c r="I15">
-        <v>0.0002797807413089924</v>
+        <v>0.0003073050043941503</v>
       </c>
       <c r="J15">
-        <v>0.0002797807413089924</v>
+        <v>0.0003073050043941503</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N15">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q15">
-        <v>9.479499194694395</v>
+        <v>10.60429405759711</v>
       </c>
       <c r="R15">
-        <v>9.479499194694395</v>
+        <v>95.438646518374</v>
       </c>
       <c r="S15">
-        <v>4.096447036264673E-05</v>
+        <v>4.495345030573515E-05</v>
       </c>
       <c r="T15">
-        <v>4.096447036264673E-05</v>
+        <v>4.495345030573515E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.109875835497129</v>
+        <v>0.1219473333333333</v>
       </c>
       <c r="H16">
-        <v>0.109875835497129</v>
+        <v>0.365842</v>
       </c>
       <c r="I16">
-        <v>0.0002797807413089924</v>
+        <v>0.0003073050043941503</v>
       </c>
       <c r="J16">
-        <v>0.0002797807413089924</v>
+        <v>0.0003073050043941503</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N16">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q16">
-        <v>6.266878783728572</v>
+        <v>7.284446316864444</v>
       </c>
       <c r="R16">
-        <v>6.266878783728572</v>
+        <v>65.56001685177999</v>
       </c>
       <c r="S16">
-        <v>2.708153299343414E-05</v>
+        <v>3.088003725013284E-05</v>
       </c>
       <c r="T16">
-        <v>2.708153299343414E-05</v>
+        <v>3.088003725013284E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.10907623357881</v>
+        <v>0.1193106666666667</v>
       </c>
       <c r="H17">
-        <v>0.10907623357881</v>
+        <v>0.357932</v>
       </c>
       <c r="I17">
-        <v>0.0002777446865527559</v>
+        <v>0.0003006606535958338</v>
       </c>
       <c r="J17">
-        <v>0.0002777446865527559</v>
+        <v>0.0003006606535958338</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N17">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O17">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P17">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q17">
-        <v>17.6821847563176</v>
+        <v>19.53258611144356</v>
       </c>
       <c r="R17">
-        <v>17.6821847563176</v>
+        <v>175.793275002992</v>
       </c>
       <c r="S17">
-        <v>7.641135027496227E-05</v>
+        <v>8.280203607464224E-05</v>
       </c>
       <c r="T17">
-        <v>7.641135027496227E-05</v>
+        <v>8.280203607464224E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.10907623357881</v>
+        <v>0.1193106666666667</v>
       </c>
       <c r="H18">
-        <v>0.10907623357881</v>
+        <v>0.357932</v>
       </c>
       <c r="I18">
-        <v>0.0002777446865527559</v>
+        <v>0.0003006606535958338</v>
       </c>
       <c r="J18">
-        <v>0.0002777446865527559</v>
+        <v>0.0003006606535958338</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N18">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P18">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q18">
-        <v>18.82165239169785</v>
+        <v>20.588069316068</v>
       </c>
       <c r="R18">
-        <v>18.82165239169785</v>
+        <v>185.292623844612</v>
       </c>
       <c r="S18">
-        <v>8.133541717132897E-05</v>
+        <v>8.727641329672906E-05</v>
       </c>
       <c r="T18">
-        <v>8.133541717132897E-05</v>
+        <v>8.727641329672906E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.10907623357881</v>
+        <v>0.1193106666666667</v>
       </c>
       <c r="H19">
-        <v>0.10907623357881</v>
+        <v>0.357932</v>
       </c>
       <c r="I19">
-        <v>0.0002777446865527559</v>
+        <v>0.0003006606535958338</v>
       </c>
       <c r="J19">
-        <v>0.0002777446865527559</v>
+        <v>0.0003006606535958338</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N19">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O19">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P19">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q19">
-        <v>12.13667156420864</v>
+        <v>13.30172721205289</v>
       </c>
       <c r="R19">
-        <v>12.13667156420864</v>
+        <v>119.715544908476</v>
       </c>
       <c r="S19">
-        <v>5.244710847926079E-05</v>
+        <v>5.638833947452409E-05</v>
       </c>
       <c r="T19">
-        <v>5.244710847926079E-05</v>
+        <v>5.63883394745241E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.10907623357881</v>
+        <v>0.1193106666666667</v>
       </c>
       <c r="H20">
-        <v>0.10907623357881</v>
+        <v>0.357932</v>
       </c>
       <c r="I20">
-        <v>0.0002777446865527559</v>
+        <v>0.0003006606535958338</v>
       </c>
       <c r="J20">
-        <v>0.0002777446865527559</v>
+        <v>0.0003006606535958338</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N20">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O20">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P20">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q20">
-        <v>9.410513819461647</v>
+        <v>10.37501484417822</v>
       </c>
       <c r="R20">
-        <v>9.410513819461647</v>
+        <v>93.37513359760401</v>
       </c>
       <c r="S20">
-        <v>4.066635869016939E-05</v>
+        <v>4.398149576820702E-05</v>
       </c>
       <c r="T20">
-        <v>4.066635869016939E-05</v>
+        <v>4.398149576820702E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.10907623357881</v>
+        <v>0.1193106666666667</v>
       </c>
       <c r="H21">
-        <v>0.10907623357881</v>
+        <v>0.357932</v>
       </c>
       <c r="I21">
-        <v>0.0002777446865527559</v>
+        <v>0.0003006606535958338</v>
       </c>
       <c r="J21">
-        <v>0.0002777446865527559</v>
+        <v>0.0003006606535958338</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N21">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O21">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P21">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q21">
-        <v>6.221272684128329</v>
+        <v>7.126946712208889</v>
       </c>
       <c r="R21">
-        <v>6.221272684128329</v>
+        <v>64.14252040987999</v>
       </c>
       <c r="S21">
-        <v>2.688445193703448E-05</v>
+        <v>3.021236898173132E-05</v>
       </c>
       <c r="T21">
-        <v>2.688445193703448E-05</v>
+        <v>3.021236898173132E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>29.102000516101</v>
+        <v>31.471469</v>
       </c>
       <c r="H22">
-        <v>29.102000516101</v>
+        <v>94.414407</v>
       </c>
       <c r="I22">
-        <v>0.07410345724453825</v>
+        <v>0.07930751460468206</v>
       </c>
       <c r="J22">
-        <v>0.07410345724453825</v>
+        <v>0.07930751460468205</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N22">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O22">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P22">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q22">
-        <v>4717.681689406223</v>
+        <v>5152.256671346455</v>
       </c>
       <c r="R22">
-        <v>4717.681689406223</v>
+        <v>46370.31004211809</v>
       </c>
       <c r="S22">
-        <v>0.02038687147673867</v>
+        <v>0.0218413138092709</v>
       </c>
       <c r="T22">
-        <v>0.02038687147673867</v>
+        <v>0.0218413138092709</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>29.102000516101</v>
+        <v>31.471469</v>
       </c>
       <c r="H23">
-        <v>29.102000516101</v>
+        <v>94.414407</v>
       </c>
       <c r="I23">
-        <v>0.07410345724453825</v>
+        <v>0.07930751460468206</v>
       </c>
       <c r="J23">
-        <v>0.07410345724453825</v>
+        <v>0.07930751460468205</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N23">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P23">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q23">
-        <v>5021.696474523982</v>
+        <v>5430.669389022092</v>
       </c>
       <c r="R23">
-        <v>5021.696474523982</v>
+        <v>48876.02450119883</v>
       </c>
       <c r="S23">
-        <v>0.02170063335370926</v>
+        <v>0.02302155383284419</v>
       </c>
       <c r="T23">
-        <v>0.02170063335370926</v>
+        <v>0.02302155383284419</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>29.102000516101</v>
+        <v>31.471469</v>
       </c>
       <c r="H24">
-        <v>29.102000516101</v>
+        <v>94.414407</v>
       </c>
       <c r="I24">
-        <v>0.07410345724453825</v>
+        <v>0.07930751460468206</v>
       </c>
       <c r="J24">
-        <v>0.07410345724453825</v>
+        <v>0.07930751460468205</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N24">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O24">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P24">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q24">
-        <v>3238.115311986386</v>
+        <v>3508.696307683405</v>
       </c>
       <c r="R24">
-        <v>3238.115311986386</v>
+        <v>31578.26676915065</v>
       </c>
       <c r="S24">
-        <v>0.01399311039584673</v>
+        <v>0.01487397503772192</v>
       </c>
       <c r="T24">
-        <v>0.01399311039584673</v>
+        <v>0.01487397503772192</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>29.102000516101</v>
+        <v>31.471469</v>
       </c>
       <c r="H25">
-        <v>29.102000516101</v>
+        <v>94.414407</v>
       </c>
       <c r="I25">
-        <v>0.07410345724453825</v>
+        <v>0.07930751460468206</v>
       </c>
       <c r="J25">
-        <v>0.07410345724453825</v>
+        <v>0.07930751460468205</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N25">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O25">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P25">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q25">
-        <v>2510.764893920499</v>
+        <v>2736.695445306048</v>
       </c>
       <c r="R25">
-        <v>2510.764893920499</v>
+        <v>24630.25900775443</v>
       </c>
       <c r="S25">
-        <v>0.01084995651902642</v>
+        <v>0.01160132886114758</v>
       </c>
       <c r="T25">
-        <v>0.01084995651902642</v>
+        <v>0.01160132886114758</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>29.102000516101</v>
+        <v>31.471469</v>
       </c>
       <c r="H26">
-        <v>29.102000516101</v>
+        <v>94.414407</v>
       </c>
       <c r="I26">
-        <v>0.07410345724453825</v>
+        <v>0.07930751460468206</v>
       </c>
       <c r="J26">
-        <v>0.07410345724453825</v>
+        <v>0.07930751460468205</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N26">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O26">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P26">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q26">
-        <v>1659.861868383033</v>
+        <v>1879.928163879737</v>
       </c>
       <c r="R26">
-        <v>1659.861868383033</v>
+        <v>16919.35347491763</v>
       </c>
       <c r="S26">
-        <v>0.007172885499217161</v>
+        <v>0.007969343063697452</v>
       </c>
       <c r="T26">
-        <v>0.007172885499217161</v>
+        <v>0.00796934306369745</v>
       </c>
     </row>
   </sheetData>
